--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Latent View Analytics Ltd/Pruned_Excel/Final_Parameters/Latent View Analytics Ltd_Cleaned_Data_Updated.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Latent View Analytics Ltd/Pruned_Excel/Final_Parameters/Latent View Analytics Ltd_Cleaned_Data_Updated.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
   <si>
     <t>Balance Sheet of Latent View Analytics(in Rs. Cr.)</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>P/l before exceptional items &amp; tax</t>
+  </si>
+  <si>
+    <t>Exceptional items</t>
   </si>
   <si>
     <t>P/l before tax</t>
@@ -2106,13 +2109,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -2173,10 +2176,13 @@
       <c r="T1" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>58.67</v>
@@ -2208,37 +2214,37 @@
       <c r="K2">
         <v>27.34</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>27.34</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>5.73</v>
-      </c>
-      <c r="N2">
-        <v>21.61</v>
       </c>
       <c r="O2">
         <v>21.61</v>
       </c>
       <c r="P2">
+        <v>21.61</v>
+      </c>
+      <c r="Q2">
         <v>19.78</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1.17</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1.11</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1.17</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1.11</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>45.09</v>
@@ -2270,37 +2276,37 @@
       <c r="K3">
         <v>17.3</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>17.3</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>3.59</v>
-      </c>
-      <c r="N3">
-        <v>13.7</v>
       </c>
       <c r="O3">
         <v>13.7</v>
       </c>
       <c r="P3">
+        <v>13.7</v>
+      </c>
+      <c r="Q3">
         <v>17.37</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.79</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.76</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.79</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>36.29</v>
@@ -2332,31 +2338,31 @@
       <c r="K4">
         <v>14.42</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>14.42</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2.89</v>
-      </c>
-      <c r="N4">
-        <v>11.53</v>
       </c>
       <c r="O4">
         <v>11.53</v>
       </c>
       <c r="P4">
+        <v>11.53</v>
+      </c>
+      <c r="Q4">
         <v>20.04</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.58</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.58</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>43.25</v>
@@ -2388,37 +2394,37 @@
       <c r="K5">
         <v>25.25</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>25.25</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>4.94</v>
-      </c>
-      <c r="N5">
-        <v>20.32</v>
       </c>
       <c r="O5">
         <v>20.32</v>
       </c>
       <c r="P5">
+        <v>20.32</v>
+      </c>
+      <c r="Q5">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1.19</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1.13</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>24.96</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1.13</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>66.70999999999999</v>
@@ -2450,37 +2456,37 @@
       <c r="K6">
         <v>37.47</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>37.47</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>8.42</v>
-      </c>
-      <c r="N6">
-        <v>29.05</v>
       </c>
       <c r="O6">
         <v>29.05</v>
       </c>
       <c r="P6">
+        <v>29.05</v>
+      </c>
+      <c r="Q6">
         <v>20.04</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1.46</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1.41</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1.46</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1.41</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7">
         <v>68.45999999999999</v>
@@ -2512,37 +2518,37 @@
       <c r="K7">
         <v>47.05</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>47.05</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>9.69</v>
-      </c>
-      <c r="N7">
-        <v>37.36</v>
       </c>
       <c r="O7">
         <v>37.36</v>
       </c>
       <c r="P7">
+        <v>37.36</v>
+      </c>
+      <c r="Q7">
         <v>20.31</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1.85</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1.82</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1.85</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1.82</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>64.98999999999999</v>
@@ -2574,37 +2580,37 @@
       <c r="K8">
         <v>32.09</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>32.09</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>6.29</v>
-      </c>
-      <c r="N8">
-        <v>25.8</v>
       </c>
       <c r="O8">
         <v>25.8</v>
       </c>
       <c r="P8">
+        <v>25.8</v>
+      </c>
+      <c r="Q8">
         <v>20.04</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1.29</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1.25</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1.29</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B9">
         <v>60.91</v>
@@ -2636,37 +2642,37 @@
       <c r="K9">
         <v>32.05</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>32.05</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>7.69</v>
-      </c>
-      <c r="N9">
-        <v>24.36</v>
       </c>
       <c r="O9">
         <v>24.36</v>
       </c>
       <c r="P9">
+        <v>24.36</v>
+      </c>
+      <c r="Q9">
         <v>20.04</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1.22</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1.18</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1.22</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1.18</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B10">
         <v>68.90000000000001</v>
@@ -2698,37 +2704,37 @@
       <c r="K10">
         <v>36.23</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>36.23</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>9.85</v>
-      </c>
-      <c r="N10">
-        <v>26.38</v>
       </c>
       <c r="O10">
         <v>26.38</v>
       </c>
       <c r="P10">
+        <v>26.38</v>
+      </c>
+      <c r="Q10">
         <v>20.49</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1.29</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1.27</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1.29</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1.27</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B11">
         <v>69.59999999999999</v>
@@ -2760,37 +2766,37 @@
       <c r="K11">
         <v>38.38</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>38.38</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>8.67</v>
-      </c>
-      <c r="N11">
-        <v>29.71</v>
       </c>
       <c r="O11">
         <v>29.71</v>
       </c>
       <c r="P11">
+        <v>29.71</v>
+      </c>
+      <c r="Q11">
         <v>20.49</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1.46</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1.44</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1.46</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1.44</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>73.81999999999999</v>
@@ -2822,37 +2828,37 @@
       <c r="K12">
         <v>41.39</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>41.39</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>10.03</v>
-      </c>
-      <c r="N12">
-        <v>31.35</v>
       </c>
       <c r="O12">
         <v>31.35</v>
       </c>
       <c r="P12">
+        <v>31.35</v>
+      </c>
+      <c r="Q12">
         <v>20.59</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1.53</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1.52</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1.53</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1.52</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13">
         <v>71.77</v>
@@ -2884,37 +2890,37 @@
       <c r="K13">
         <v>36.88</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>36.88</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>10.58</v>
-      </c>
-      <c r="N13">
-        <v>26.3</v>
       </c>
       <c r="O13">
         <v>26.3</v>
       </c>
       <c r="P13">
+        <v>26.3</v>
+      </c>
+      <c r="Q13">
         <v>20.49</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1.28</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1.27</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1.28</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1.27</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14">
         <v>82.48999999999999</v>
@@ -2946,37 +2952,37 @@
       <c r="K14">
         <v>46.65</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>46.65</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>13.4</v>
-      </c>
-      <c r="N14">
-        <v>33.25</v>
       </c>
       <c r="O14">
         <v>33.25</v>
       </c>
       <c r="P14">
+        <v>33.25</v>
+      </c>
+      <c r="Q14">
         <v>20.6</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1.61</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1.6</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1.61</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B15">
         <v>78.95</v>
@@ -3008,37 +3014,37 @@
       <c r="K15">
         <v>38.91</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>38.91</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>11.04</v>
-      </c>
-      <c r="N15">
-        <v>27.87</v>
       </c>
       <c r="O15">
         <v>27.87</v>
       </c>
       <c r="P15">
+        <v>27.87</v>
+      </c>
+      <c r="Q15">
         <v>20.6</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1.35</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1.34</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1.35</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1.34</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B16">
         <v>77.03</v>
@@ -3070,31 +3076,31 @@
       <c r="K16">
         <v>39.45</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>39.45</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>10.22</v>
-      </c>
-      <c r="N16">
-        <v>29.23</v>
       </c>
       <c r="O16">
         <v>29.23</v>
       </c>
       <c r="P16">
+        <v>29.23</v>
+      </c>
+      <c r="Q16">
         <v>20.59</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1.42</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1.41</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1.42</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1.41</v>
       </c>
     </row>
@@ -3113,58 +3119,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:18">
